--- a/natmiOut/OldD2/LR-pairs_lrc2p/Osm-Il6st.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Osm-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Osm</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H2">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I2">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J2">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N2">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O2">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P2">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q2">
-        <v>2096.444693150969</v>
+        <v>2272.103665986313</v>
       </c>
       <c r="R2">
-        <v>2096.444693150969</v>
+        <v>13632.62199591788</v>
       </c>
       <c r="S2">
-        <v>0.1202868494856073</v>
+        <v>0.121527059187825</v>
       </c>
       <c r="T2">
-        <v>0.1202868494856073</v>
+        <v>0.09272636784524689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H3">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I3">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J3">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N3">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P3">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q3">
-        <v>3009.990249723263</v>
+        <v>3375.231519375807</v>
       </c>
       <c r="R3">
-        <v>3009.990249723263</v>
+        <v>30377.08367438227</v>
       </c>
       <c r="S3">
-        <v>0.1727029791458156</v>
+        <v>0.1805295976448053</v>
       </c>
       <c r="T3">
-        <v>0.1727029791458156</v>
+        <v>0.2066188467412988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H4">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I4">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J4">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N4">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O4">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P4">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q4">
-        <v>312.1641989405194</v>
+        <v>328.0636939996194</v>
       </c>
       <c r="R4">
-        <v>312.1641989405194</v>
+        <v>2952.573245996575</v>
       </c>
       <c r="S4">
-        <v>0.01791091753358716</v>
+        <v>0.01754700569120442</v>
       </c>
       <c r="T4">
-        <v>0.01791091753358716</v>
+        <v>0.02008281260789696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H5">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I5">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J5">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N5">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O5">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P5">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q5">
-        <v>426.8958017760029</v>
+        <v>452.4354349060032</v>
       </c>
       <c r="R5">
-        <v>426.8958017760029</v>
+        <v>4071.918914154029</v>
       </c>
       <c r="S5">
-        <v>0.02449382577180628</v>
+        <v>0.02419922501758879</v>
       </c>
       <c r="T5">
-        <v>0.02449382577180628</v>
+        <v>0.027696377936902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H6">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I6">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J6">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N6">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O6">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P6">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q6">
-        <v>1056.833270777948</v>
+        <v>1118.474101969787</v>
       </c>
       <c r="R6">
-        <v>1056.833270777948</v>
+        <v>10066.26691772808</v>
       </c>
       <c r="S6">
-        <v>0.06063749021796624</v>
+        <v>0.05982335684103883</v>
       </c>
       <c r="T6">
-        <v>0.06063749021796624</v>
+        <v>0.06846873399124478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H7">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I7">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J7">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N7">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O7">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P7">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q7">
-        <v>894.0412531862726</v>
+        <v>944.075442012669</v>
       </c>
       <c r="R7">
-        <v>894.0412531862726</v>
+        <v>5664.452652076015</v>
       </c>
       <c r="S7">
-        <v>0.05129703922420464</v>
+        <v>0.05049536860345737</v>
       </c>
       <c r="T7">
-        <v>0.05129703922420464</v>
+        <v>0.03852847386333038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H8">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I8">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J8">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N8">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O8">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P8">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q8">
-        <v>2590.13770600042</v>
+        <v>2717.381905405017</v>
       </c>
       <c r="R8">
-        <v>2590.13770600042</v>
+        <v>16304.2914324301</v>
       </c>
       <c r="S8">
-        <v>0.1486132715098689</v>
+        <v>0.145343470281637</v>
       </c>
       <c r="T8">
-        <v>0.1486132715098689</v>
+        <v>0.1108985289309952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H9">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I9">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J9">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N9">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P9">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q9">
-        <v>3718.81465128659</v>
+        <v>4036.696562136418</v>
       </c>
       <c r="R9">
-        <v>3718.81465128659</v>
+        <v>36330.26905922776</v>
       </c>
       <c r="S9">
-        <v>0.2133729068482364</v>
+        <v>0.2159091019366355</v>
       </c>
       <c r="T9">
-        <v>0.2133729068482364</v>
+        <v>0.2471112228969221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H10">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I10">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J10">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N10">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O10">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P10">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q10">
-        <v>385.6759325827969</v>
+        <v>392.3563696676262</v>
       </c>
       <c r="R10">
-        <v>385.6759325827969</v>
+        <v>3531.207327008635</v>
       </c>
       <c r="S10">
-        <v>0.02212877020050601</v>
+        <v>0.02098580116441085</v>
       </c>
       <c r="T10">
-        <v>0.02212877020050601</v>
+        <v>0.02401856588116948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H11">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I11">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J11">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N11">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O11">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P11">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q11">
-        <v>527.4257490911451</v>
+        <v>541.1020115774193</v>
       </c>
       <c r="R11">
-        <v>527.4257490911451</v>
+        <v>4869.918104196773</v>
       </c>
       <c r="S11">
-        <v>0.03026189143125259</v>
+        <v>0.02894169714702459</v>
       </c>
       <c r="T11">
-        <v>0.03026189143125259</v>
+        <v>0.03312420880159329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H12">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I12">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J12">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N12">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O12">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P12">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q12">
-        <v>1305.707568885812</v>
+        <v>1337.668404772132</v>
       </c>
       <c r="R12">
-        <v>1305.707568885812</v>
+        <v>12039.01564294919</v>
       </c>
       <c r="S12">
-        <v>0.07491704900391369</v>
+        <v>0.07154731090575409</v>
       </c>
       <c r="T12">
-        <v>0.07491704900391369</v>
+        <v>0.08188697620582898</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H13">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I13">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J13">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N13">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O13">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P13">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q13">
-        <v>1104.579561847223</v>
+        <v>1129.091758385431</v>
       </c>
       <c r="R13">
-        <v>1104.579561847223</v>
+        <v>6774.550550312587</v>
       </c>
       <c r="S13">
-        <v>0.06337700962723511</v>
+        <v>0.06039125899223748</v>
       </c>
       <c r="T13">
-        <v>0.06337700962723511</v>
+        <v>0.0460791377111905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.477353</v>
+      </c>
+      <c r="I14">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J14">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>86.777428</v>
+      </c>
+      <c r="N14">
+        <v>173.554856</v>
+      </c>
+      <c r="O14">
+        <v>0.2676090626666408</v>
+      </c>
+      <c r="P14">
+        <v>0.2041884050300022</v>
+      </c>
+      <c r="Q14">
+        <v>13.80782186269467</v>
+      </c>
+      <c r="R14">
+        <v>82.846931176168</v>
+      </c>
+      <c r="S14">
+        <v>0.0007385331971788417</v>
+      </c>
+      <c r="T14">
+        <v>0.0005635082537600995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.477353</v>
+      </c>
+      <c r="I15">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J15">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>128.9086913333333</v>
+      </c>
+      <c r="N15">
+        <v>386.726074</v>
+      </c>
+      <c r="O15">
+        <v>0.3975357976419474</v>
+      </c>
+      <c r="P15">
+        <v>0.4549857149118007</v>
+      </c>
+      <c r="Q15">
+        <v>20.51165017801356</v>
+      </c>
+      <c r="R15">
+        <v>184.604851602122</v>
+      </c>
+      <c r="S15">
+        <v>0.001097098060506554</v>
+      </c>
+      <c r="T15">
+        <v>0.001255645273579894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.477353</v>
+      </c>
+      <c r="I16">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J16">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.52958833333333</v>
+      </c>
+      <c r="N16">
+        <v>37.588765</v>
+      </c>
+      <c r="O16">
+        <v>0.03863944192356349</v>
+      </c>
+      <c r="P16">
+        <v>0.04422342393230168</v>
+      </c>
+      <c r="Q16">
+        <v>1.993678859893889</v>
+      </c>
+      <c r="R16">
+        <v>17.943109739045</v>
+      </c>
+      <c r="S16">
+        <v>0.0001066350679482155</v>
+      </c>
+      <c r="T16">
+        <v>0.0001220454432352429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.477353</v>
+      </c>
+      <c r="I17">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J17">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.279662</v>
+      </c>
+      <c r="N17">
+        <v>51.83898599999999</v>
+      </c>
+      <c r="O17">
+        <v>0.05328798349515926</v>
+      </c>
+      <c r="P17">
+        <v>0.06098890064886812</v>
+      </c>
+      <c r="Q17">
+        <v>2.749499498228667</v>
+      </c>
+      <c r="R17">
+        <v>24.745495484058</v>
+      </c>
+      <c r="S17">
+        <v>0.000147061330545885</v>
+      </c>
+      <c r="T17">
+        <v>0.0001683139103728348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.477353</v>
+      </c>
+      <c r="I18">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J18">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>42.71737566666666</v>
+      </c>
+      <c r="N18">
+        <v>128.152127</v>
+      </c>
+      <c r="O18">
+        <v>0.1317342208129911</v>
+      </c>
+      <c r="P18">
+        <v>0.1507718021634167</v>
+      </c>
+      <c r="Q18">
+        <v>6.797089142203444</v>
+      </c>
+      <c r="R18">
+        <v>61.17380227983099</v>
+      </c>
+      <c r="S18">
+        <v>0.0003635530661981937</v>
+      </c>
+      <c r="T18">
+        <v>0.0004160919663429786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.477353</v>
+      </c>
+      <c r="I19">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J19">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>36.0566465</v>
+      </c>
+      <c r="N19">
+        <v>72.113293</v>
+      </c>
+      <c r="O19">
+        <v>0.111193493459698</v>
+      </c>
+      <c r="P19">
+        <v>0.08484175331361067</v>
+      </c>
+      <c r="Q19">
+        <v>5.737249458904834</v>
+      </c>
+      <c r="R19">
+        <v>34.423496753429</v>
+      </c>
+      <c r="S19">
+        <v>0.0003068658640031633</v>
+      </c>
+      <c r="T19">
+        <v>0.0002341417390898035</v>
       </c>
     </row>
   </sheetData>
